--- a/test-data/APPM.xlsx
+++ b/test-data/APPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89865A5A-326A-451F-A88E-A85508A52CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702CEBC-A9CD-47C2-B0AC-D8F68C6816AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="175">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -561,7 +561,7 @@
     <t>validateDataDistributionChart_APPM</t>
   </si>
   <si>
-    <t>HEADLESS</t>
+    <t>CHROME</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD257"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,9 +1141,6 @@
         <v>1</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -1156,9 +1153,6 @@
         <v>1</v>
       </c>
       <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -1171,9 +1165,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1187,9 +1179,6 @@
         <v>1</v>
       </c>
       <c r="D5" s="30"/>
-      <c r="E5" s="31" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
@@ -1202,9 +1191,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="30"/>
-      <c r="E6" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1218,9 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
@@ -1233,9 +1218,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="E8" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -1248,9 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="30"/>
-      <c r="E9" s="31" t="s">
-        <v>157</v>
-      </c>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -1263,9 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="31" t="s">
-        <v>157</v>
-      </c>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -1278,9 +1257,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="30"/>
-      <c r="E11" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
@@ -1293,9 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="30"/>
-      <c r="E12" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E12" s="32"/>
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1309,9 +1284,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="30"/>
-      <c r="E13" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1325,9 +1298,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1341,9 +1312,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E15" s="32"/>
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1357,9 +1326,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1373,9 +1340,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,9 +1354,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1405,9 +1368,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1421,9 +1382,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1437,9 +1396,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="30"/>
-      <c r="E21" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1452,9 +1409,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1467,9 +1422,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="30"/>
-      <c r="E23" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E23" s="32"/>
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1483,9 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="30"/>
-      <c r="E24" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
@@ -1498,9 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="30"/>
-      <c r="E25" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E25" s="32"/>
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1514,9 +1463,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -1529,9 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="30"/>
-      <c r="E27" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
@@ -1544,9 +1489,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="30"/>
-      <c r="E28" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
@@ -1559,9 +1502,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="30"/>
-      <c r="E29" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -1574,9 +1515,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="30"/>
-      <c r="E30" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
@@ -1589,9 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="30"/>
-      <c r="E31" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
@@ -1604,9 +1541,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="30"/>
-      <c r="E32" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -1619,9 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="30"/>
-      <c r="E33" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
@@ -1634,9 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="30"/>
-      <c r="E34" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
@@ -1649,9 +1580,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="30"/>
-      <c r="E35" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E35" s="32"/>
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1665,9 +1594,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="30"/>
-      <c r="E36" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -1680,9 +1607,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="30"/>
-      <c r="E37" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
@@ -1695,9 +1620,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
@@ -1710,9 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="30"/>
-      <c r="E39" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
@@ -1725,9 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
@@ -1740,9 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
@@ -1755,9 +1672,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
@@ -1770,9 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="30"/>
-      <c r="E43" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -1785,9 +1698,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
@@ -1800,9 +1711,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="30"/>
-      <c r="E45" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
@@ -1815,9 +1724,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="30"/>
-      <c r="E46" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
@@ -1830,9 +1737,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="30"/>
-      <c r="E47" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
@@ -1845,9 +1750,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="30"/>
-      <c r="E48" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
@@ -1860,9 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="30"/>
-      <c r="E49" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
@@ -1875,9 +1776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="30"/>
-      <c r="E50" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
@@ -1890,9 +1789,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="30"/>
-      <c r="E51" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
@@ -1905,9 +1802,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="30"/>
-      <c r="E52" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
@@ -1920,9 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="30"/>
-      <c r="E53" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="E53" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6001,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test-data/APPM.xlsx
+++ b/test-data/APPM.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702CEBC-A9CD-47C2-B0AC-D8F68C6816AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46311730-9460-4AA5-A6C0-5B92C6C42CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
     <sheet name="ExecutionFlow" sheetId="2" r:id="rId2"/>
-    <sheet name="APPM_TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="180">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -117,6 +117,9 @@
     <t>TC10_Lead Time Analysis_Charts_Check if Supplier &amp; Destination filed are avalable in the chart</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>APPM_TC11</t>
   </si>
   <si>
@@ -375,9 +378,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>APPM_TestData</t>
-  </si>
-  <si>
     <t>TC02_Lead Time Analysis_Product Hierarchy_Check if the drop down has Select All Option</t>
   </si>
   <si>
@@ -447,6 +447,9 @@
     <t>DetailedViewColumn_Header</t>
   </si>
   <si>
+    <t>CHROME</t>
+  </si>
+  <si>
     <t>https://app.powerbi.com/groups/59184b32-54d4-4e1b-a73e-aefb692c7c3f/reports/1ba1d6d5-4094-49fa-b606-51e20c414100/ReportSection</t>
   </si>
   <si>
@@ -510,64 +513,77 @@
     <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
   </si>
   <si>
+    <t>Phantoon*1984a</t>
+  </si>
+  <si>
+    <t>validateDropDownHasData_APPM</t>
+  </si>
+  <si>
+    <t>validateValueInDropDown_APPM</t>
+  </si>
+  <si>
+    <t>validateSummaryChartDeepDiveButtonIsActive_APPM</t>
+  </si>
+  <si>
+    <t>validateSummaryChartName_APPM</t>
+  </si>
+  <si>
+    <t>validateDeepDiveDrillTrough_APPM</t>
+  </si>
+  <si>
+    <t>validateChartColumnHeader_APPM</t>
+  </si>
+  <si>
+    <t>gotoLeadTimeAnalysis_APPM</t>
+  </si>
+  <si>
+    <t>gotoYield_APPM</t>
+  </si>
+  <si>
+    <t>gotoCapacity_APPM</t>
+  </si>
+  <si>
+    <t>gotoSupplierLeadTime_APPM</t>
+  </si>
+  <si>
+    <t>gotoProductionYield_APPM</t>
+  </si>
+  <si>
+    <t>gotoProductionRate_APPM</t>
+  </si>
+  <si>
+    <t>gotoDistributionLeadTime_APPM</t>
+  </si>
+  <si>
+    <t>gotoSummaryChart_APPM</t>
+  </si>
+  <si>
+    <t>gotoDetailedViewChart_APPM</t>
+  </si>
+  <si>
+    <t>validateDataDistributionChart_APPM</t>
+  </si>
+  <si>
+    <t>Iteration3</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>validateDropDownHasData_APPM</t>
-  </si>
-  <si>
-    <t>validateValueInDropDown_APPM</t>
-  </si>
-  <si>
-    <t>validateSummaryChartDeepDiveButtonIsActive_APPM</t>
-  </si>
-  <si>
-    <t>validateSummaryChartName_APPM</t>
-  </si>
-  <si>
-    <t>validateDeepDiveDrillTrough_APPM</t>
-  </si>
-  <si>
-    <t>validateChartColumnHeader_APPM</t>
-  </si>
-  <si>
-    <t>gotoLeadTimeAnalysis_APPM</t>
-  </si>
-  <si>
-    <t>gotoYield_APPM</t>
-  </si>
-  <si>
-    <t>gotoCapacity_APPM</t>
-  </si>
-  <si>
-    <t>gotoSupplierLeadTime_APPM</t>
-  </si>
-  <si>
-    <t>gotoProductionYield_APPM</t>
-  </si>
-  <si>
-    <t>gotoProductionRate_APPM</t>
-  </si>
-  <si>
-    <t>gotoDistributionLeadTime_APPM</t>
-  </si>
-  <si>
-    <t>gotoSummaryChart_APPM</t>
-  </si>
-  <si>
-    <t>gotoDetailedViewChart_APPM</t>
-  </si>
-  <si>
-    <t>validateDataDistributionChart_APPM</t>
-  </si>
-  <si>
-    <t>CHROME</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,15 +784,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1094,23 +1108,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="109.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="109.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1143,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
@@ -1138,11 +1155,20 @@
         <v>7</v>
       </c>
       <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
@@ -1150,11 +1176,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
@@ -1162,13 +1196,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="30">
-        <v>1</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -1176,11 +1216,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
@@ -1188,13 +1236,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
@@ -1202,12 +1256,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
@@ -1215,38 +1276,59 @@
         <v>19</v>
       </c>
       <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="35">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="30">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>24</v>
       </c>
@@ -1254,568 +1336,857 @@
         <v>25</v>
       </c>
       <c r="C11" s="30">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="30">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="30">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="30">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="30">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="30">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="30">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="30">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="30">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="30">
-        <v>1</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="30">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="30">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="30">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="30">
-        <v>1</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="30">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="30">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="30">
-        <v>1</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="30">
-        <v>1</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="30">
-        <v>1</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="30">
-        <v>1</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="30">
-        <v>1</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="30">
-        <v>1</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="30">
-        <v>1</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="30">
-        <v>1</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="30">
-        <v>1</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="30">
-        <v>1</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="30">
-        <v>1</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="30">
-        <v>1</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="30">
-        <v>1</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="30">
-        <v>1</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="30">
-        <v>1</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="30">
-        <v>1</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="49" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="30">
-        <v>1</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="30">
-        <v>1</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="30">
-        <v>1</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="30">
-        <v>1</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="30">
-        <v>1</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1828,18 +2199,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286:XFD895"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="103.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="78.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="10.28515625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="10.0" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1847,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -1858,12 +2229,14 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1871,60 +2244,72 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1936,60 +2321,68 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -2001,60 +2394,68 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2066,60 +2467,68 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -2131,60 +2540,68 @@
         <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -2196,60 +2613,68 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -2261,90 +2686,102 @@
         <v>18</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -2356,75 +2793,85 @@
         <v>20</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -2436,75 +2883,85 @@
         <v>22</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -2516,220 +2973,248 @@
         <v>24</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -2738,128 +3223,144 @@
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="73" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2868,128 +3369,144 @@
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="83" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="88" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2998,63 +3515,71 @@
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E91" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
@@ -3063,63 +3588,71 @@
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E94" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="98" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -3128,63 +3661,71 @@
     </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
@@ -3193,253 +3734,285 @@
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E104" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E106" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E114" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E115" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="116" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E121" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="122" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
@@ -3448,2158 +4021,2426 @@
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E124" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E125" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E126" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E127" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="128" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E129" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E130" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E131" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E132" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E133" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E135" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E140" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E141" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E142" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E143" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E145" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E146" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E147" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E148" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="149" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E150" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E151" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E152" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="154" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E156" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E157" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E158" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="159" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E160" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E161" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E162" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E163" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="164" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E165" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E166" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E167" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E168" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="169" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E170" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E171" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E172" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E173" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="174" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E175" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E176" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E177" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E178" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E179" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E180" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E182" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E183" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E184" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E185" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E186" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E188" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E189" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E190" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E191" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="193" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E194" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E195" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E196" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E197" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E198" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="199" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E200" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="201" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E201" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="202" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E202" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="203" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E203" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="204" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E204" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="205" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E206" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="207" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E207" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="208" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E208" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="209" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E209" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E211" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="212" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E212" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="213" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E213" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="214" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E214" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E216" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="217" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E217" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="218" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E218" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="219" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E219" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E221" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="222" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E222" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="223" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E223" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="224" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E224" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E226" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="227" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E227" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="228" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E228" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="229" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E229" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E231" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="232" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E232" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="233" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E233" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="234" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E234" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E236" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="237" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E237" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="238" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E238" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="239" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E239" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E241" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="242" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E242" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E243" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="244" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E244" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E246" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="247" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E247" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="248" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E248" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="249" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E249" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="250" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E251" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="252" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E252" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="253" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E253" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E254" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="255" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E256" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="257" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E257" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="258" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E258" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="259" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E259" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="260" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E260" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="261" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E261" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="262" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E263" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="264" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E264" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="265" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E265" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="266" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E266" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="267" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E267" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="268" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E269" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E270" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="271" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E271" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="272" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E272" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="273" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E273" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="274" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E275" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="276" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E276" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="277" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E277" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E278" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="279" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E279" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="280" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E281" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="282" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E282" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E283" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="284" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E284" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="285" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E285" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
@@ -5894,25 +6735,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="27" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="39.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="53.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="5" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="27" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="5" width="25.7109375" collapsed="true"/>
+    <col min="13" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -5958,27 +6799,29 @@
         <v>6</v>
       </c>
       <c r="B2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G2" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" s="14"/>
       <c r="J2" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5986,28 +6829,30 @@
         <v>8</v>
       </c>
       <c r="B3" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G3" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="26"/>
       <c r="K3" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" s="26"/>
     </row>
@@ -6016,24 +6861,26 @@
         <v>10</v>
       </c>
       <c r="B4" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G4" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L4" s="26"/>
     </row>
@@ -6042,26 +6889,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G5" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="K5" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6069,23 +6918,25 @@
         <v>14</v>
       </c>
       <c r="B6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G6" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6093,26 +6944,28 @@
         <v>16</v>
       </c>
       <c r="B7" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G7" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6120,28 +6973,30 @@
         <v>18</v>
       </c>
       <c r="B8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6149,25 +7004,27 @@
         <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6175,28 +7032,30 @@
         <v>22</v>
       </c>
       <c r="B10" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6204,1210 +7063,1296 @@
         <v>24</v>
       </c>
       <c r="B11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="J11" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G13" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="14"/>
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G14" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="26"/>
       <c r="K14" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G15" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H15" s="14"/>
       <c r="J15" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G16" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="26"/>
       <c r="K16" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G17" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H17" s="14"/>
       <c r="J17" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G18" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="26"/>
       <c r="K18" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G19" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H19" s="14"/>
       <c r="J19" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G20" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="26"/>
       <c r="K20" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G26" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H26" s="14"/>
       <c r="J26" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G27" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="26"/>
       <c r="K27" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G28" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" s="14"/>
       <c r="J28" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G29" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="26"/>
       <c r="K29" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G30" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30" s="14"/>
       <c r="J30" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G31" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="26"/>
       <c r="K31" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G32" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H32" s="14"/>
       <c r="J32" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G33" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="26"/>
       <c r="K33" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="K38" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G39" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H39" s="14"/>
       <c r="J39" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G40" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="26"/>
       <c r="K40" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G41" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H41" s="14"/>
       <c r="J41" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F42" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G42" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="26"/>
       <c r="K42" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G43" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H43" s="14"/>
       <c r="J43" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G44" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="26"/>
       <c r="K44" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L44" s="26"/>
     </row>
     <row r="45" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G45" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H45" s="14"/>
       <c r="J45" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G46" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="26"/>
       <c r="K46" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G47" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H47" s="14"/>
       <c r="J47" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G48" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="26"/>
       <c r="K48" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L48" s="26"/>
     </row>
     <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="K49" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="K52" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="K53" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/APPM.xlsx
+++ b/test-data/APPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46311730-9460-4AA5-A6C0-5B92C6C42CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289119D0-E836-4E02-9EFB-402A82C91D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -117,9 +117,6 @@
     <t>TC10_Lead Time Analysis_Charts_Check if Supplier &amp; Destination filed are avalable in the chart</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>APPM_TC11</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
   </si>
   <si>
-    <t>Phantoon*1984a</t>
-  </si>
-  <si>
     <t>validateDropDownHasData_APPM</t>
   </si>
   <si>
@@ -571,9 +565,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -583,7 +574,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1110,18 +1100,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="109.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1155,16 +1145,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="30">
-        <v>2</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="30"/>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="32"/>
     </row>
@@ -1176,16 +1164,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="30">
-        <v>2</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1196,16 +1182,14 @@
         <v>11</v>
       </c>
       <c r="C4" s="30">
-        <v>2</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="30"/>
       <c r="E4" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1216,16 +1200,14 @@
         <v>13</v>
       </c>
       <c r="C5" s="30">
-        <v>2</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="30"/>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1236,16 +1218,14 @@
         <v>15</v>
       </c>
       <c r="C6" s="30">
-        <v>2</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1256,16 +1236,14 @@
         <v>17</v>
       </c>
       <c r="C7" s="30">
-        <v>2</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" s="30"/>
       <c r="E7" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1276,16 +1254,14 @@
         <v>19</v>
       </c>
       <c r="C8" s="30">
-        <v>2</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="30"/>
       <c r="E8" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -1296,16 +1272,14 @@
         <v>21</v>
       </c>
       <c r="C9" s="30">
-        <v>2</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="30"/>
       <c r="E9" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -1316,16 +1290,14 @@
         <v>23</v>
       </c>
       <c r="C10" s="30">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="30"/>
       <c r="E10" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1336,856 +1308,770 @@
         <v>25</v>
       </c>
       <c r="C11" s="30">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="30">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="30"/>
       <c r="E12" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="30">
-        <v>2</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D13" s="30"/>
       <c r="E13" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" s="30">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="30"/>
       <c r="E14" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="30">
-        <v>2</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="30"/>
       <c r="E15" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" s="30">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="30"/>
       <c r="E16" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" s="30">
-        <v>2</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" s="30"/>
       <c r="E17" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" s="30">
-        <v>2</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" s="30"/>
       <c r="E18" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="30">
-        <v>2</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" s="30"/>
       <c r="E19" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="30">
-        <v>2</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D20" s="30"/>
       <c r="E20" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="30">
-        <v>2</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D21" s="30"/>
       <c r="E21" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" s="30">
-        <v>2</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D22" s="30"/>
       <c r="E22" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" s="30">
-        <v>2</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D23" s="30"/>
       <c r="E23" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" s="30">
-        <v>2</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D24" s="30"/>
       <c r="E24" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" s="30">
-        <v>2</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D25" s="30"/>
       <c r="E25" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="30">
-        <v>2</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D26" s="30"/>
       <c r="E26" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" s="30">
-        <v>2</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D27" s="30"/>
       <c r="E27" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" s="30">
-        <v>2</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D28" s="30"/>
       <c r="E28" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" s="30">
-        <v>2</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" s="30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D30" s="30"/>
       <c r="E30" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="30">
-        <v>2</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D31" s="30"/>
       <c r="E31" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" s="30">
-        <v>2</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" s="30">
-        <v>2</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D33" s="30"/>
       <c r="E33" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="30">
-        <v>2</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>72</v>
-      </c>
       <c r="C35" s="30">
-        <v>2</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D35" s="30"/>
       <c r="E35" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>74</v>
-      </c>
       <c r="C36" s="30">
-        <v>2</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" s="30"/>
       <c r="E36" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>76</v>
-      </c>
       <c r="C37" s="30">
-        <v>2</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D37" s="30"/>
       <c r="E37" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>78</v>
-      </c>
       <c r="C38" s="30">
-        <v>2</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D38" s="30"/>
       <c r="E38" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>80</v>
-      </c>
       <c r="C39" s="30">
-        <v>2</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D39" s="30"/>
       <c r="E39" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" s="30">
-        <v>2</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D40" s="30"/>
       <c r="E40" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" s="30">
-        <v>2</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D41" s="30"/>
       <c r="E41" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="C42" s="30">
-        <v>2</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D42" s="30"/>
       <c r="E42" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" s="30">
-        <v>2</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D43" s="30"/>
       <c r="E43" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" s="30">
-        <v>2</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D44" s="30"/>
       <c r="E44" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" s="30">
-        <v>2</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D45" s="30"/>
       <c r="E45" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" s="30">
-        <v>2</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D46" s="30"/>
       <c r="E46" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" s="30">
-        <v>2</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D47" s="30"/>
       <c r="E47" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="C48" s="30">
+        <v>1</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="30">
-        <v>2</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="B49" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="C49" s="30">
+        <v>1</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="30">
-        <v>2</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="B50" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="C50" s="30">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="30">
-        <v>2</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="C51" s="30">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="30">
-        <v>2</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="B52" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="C52" s="30">
+        <v>1</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="30">
-        <v>2</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="B53" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" s="30">
-        <v>2</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D53" s="30"/>
       <c r="E53" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2205,12 +2091,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="78.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="10.28515625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="10.0" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2218,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -2230,13 +2116,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2244,16 +2130,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -2262,16 +2148,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2280,16 +2166,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -2298,22 +2184,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2321,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2338,16 +2224,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2355,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2372,21 +2258,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2394,16 +2280,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2411,16 +2297,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2428,16 +2314,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2445,21 +2331,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2467,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2484,16 +2370,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,16 +2387,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,21 +2404,21 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2540,16 +2426,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2557,16 +2443,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2574,16 +2460,16 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2591,21 +2477,21 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2613,16 +2499,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2630,16 +2516,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2647,16 +2533,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2664,16 +2550,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,16 +2572,16 @@
         <v>18</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2703,16 +2589,16 @@
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,16 +2606,16 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,16 +2623,16 @@
         <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2754,16 +2640,16 @@
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2771,16 +2657,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2793,16 +2679,16 @@
         <v>20</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2810,16 +2696,16 @@
         <v>20</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2827,16 +2713,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2844,16 +2730,16 @@
         <v>20</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,16 +2747,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2883,16 +2769,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,16 +2786,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,16 +2803,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,16 +2820,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2951,16 +2837,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2973,16 +2859,16 @@
         <v>24</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2990,16 +2876,16 @@
         <v>24</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3007,16 +2893,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3024,16 +2910,16 @@
         <v>24</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3041,3405 +2927,3405 @@
         <v>24</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C133" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6735,25 +6621,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B53"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="17.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="39.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="15.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="53.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="5" width="24.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="5" width="25.7109375" collapsed="true"/>
-    <col min="13" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.42578125" style="27" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -6761,37 +6647,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6799,29 +6685,27 @@
         <v>6</v>
       </c>
       <c r="B2" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="H2" s="14"/>
       <c r="J2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6829,30 +6713,28 @@
         <v>8</v>
       </c>
       <c r="B3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="26"/>
       <c r="K3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="26"/>
     </row>
@@ -6861,26 +6743,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F4" s="24"/>
       <c r="G4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="26"/>
     </row>
@@ -6889,28 +6769,26 @@
         <v>12</v>
       </c>
       <c r="B5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F5" s="24"/>
       <c r="G5" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6918,25 +6796,23 @@
         <v>14</v>
       </c>
       <c r="B6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6944,28 +6820,26 @@
         <v>16</v>
       </c>
       <c r="B7" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F7" s="24"/>
       <c r="G7" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6973,30 +6847,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F8" s="24"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="K8" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7004,27 +6876,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F9" s="24"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,30 +6902,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7063,1296 +6931,1210 @@
         <v>24</v>
       </c>
       <c r="B11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="J11" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="14"/>
       <c r="J13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="H14" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="26"/>
       <c r="K14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="14"/>
       <c r="J15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="26"/>
       <c r="K16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="14"/>
       <c r="J17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F18" s="24"/>
       <c r="G18" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="26"/>
       <c r="K18" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="14"/>
       <c r="J19" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F20" s="24"/>
       <c r="G20" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="26"/>
       <c r="K20" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="K21" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F22" s="24"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F23" s="24"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="K24" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F25" s="24"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="14"/>
       <c r="J26" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="H27" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="26"/>
       <c r="K27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="14"/>
       <c r="J28" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F29" s="24"/>
       <c r="G29" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="26"/>
       <c r="K29" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F30" s="24"/>
       <c r="G30" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="14"/>
       <c r="J30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F31" s="24"/>
       <c r="G31" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="26"/>
       <c r="K31" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="14"/>
       <c r="J32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F33" s="24"/>
       <c r="G33" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="26"/>
       <c r="K33" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F34" s="24"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="K34" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F35" s="24"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F36" s="24"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F37" s="24"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="K37" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F38" s="24"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="K38" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="H39" s="14"/>
       <c r="J39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="H40" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="26"/>
       <c r="K40" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H41" s="14"/>
       <c r="J41" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="26"/>
       <c r="K42" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F43" s="24"/>
       <c r="G43" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H43" s="14"/>
       <c r="J43" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F44" s="24"/>
       <c r="G44" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="26"/>
       <c r="K44" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L44" s="26"/>
     </row>
     <row r="45" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F45" s="24"/>
       <c r="G45" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H45" s="14"/>
       <c r="J45" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F46" s="24"/>
       <c r="G46" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="26"/>
       <c r="K46" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="E47" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F47" s="24"/>
       <c r="G47" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H47" s="14"/>
       <c r="J47" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F48" s="24"/>
       <c r="G48" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="26"/>
       <c r="K48" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L48" s="26"/>
     </row>
     <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="E49" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F49" s="24"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F50" s="24"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F51" s="24"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F52" s="24"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F53" s="24"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="K53" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/APPM.xlsx
+++ b/test-data/APPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289119D0-E836-4E02-9EFB-402A82C91D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFC659-2774-4072-A3A0-F33931B4114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="178">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,7 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1100,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,14 +1149,15 @@
       <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="32"/>
+      <c r="D2" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -1166,11 +1169,13 @@
       <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1184,11 +1189,13 @@
       <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1202,11 +1209,13 @@
       <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1220,11 +1229,13 @@
       <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1238,11 +1249,13 @@
       <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1256,47 +1269,53 @@
       <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="D8" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="D9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1310,11 +1329,13 @@
       <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1328,11 +1349,13 @@
       <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1346,11 +1369,13 @@
       <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="D13" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1364,11 +1389,13 @@
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1382,11 +1409,13 @@
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="33" t="s">
+      <c r="D15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1400,11 +1429,13 @@
       <c r="C16" s="30">
         <v>1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1418,11 +1449,13 @@
       <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="D17" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1436,11 +1469,13 @@
       <c r="C18" s="30">
         <v>1</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="D18" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1454,11 +1489,13 @@
       <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="D19" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1472,11 +1509,13 @@
       <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="D20" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1490,11 +1529,13 @@
       <c r="C21" s="30">
         <v>1</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1508,11 +1549,13 @@
       <c r="C22" s="30">
         <v>1</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1526,11 +1569,13 @@
       <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="D23" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1544,11 +1589,13 @@
       <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1562,11 +1609,13 @@
       <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="D25" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1580,11 +1629,13 @@
       <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1598,11 +1649,13 @@
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1616,11 +1669,13 @@
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1634,11 +1689,13 @@
       <c r="C29" s="30">
         <v>1</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1652,11 +1709,13 @@
       <c r="C30" s="30">
         <v>1</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1670,11 +1729,13 @@
       <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1688,11 +1749,13 @@
       <c r="C32" s="30">
         <v>1</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1706,11 +1769,13 @@
       <c r="C33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D33" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1724,11 +1789,13 @@
       <c r="C34" s="30">
         <v>1</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1742,11 +1809,13 @@
       <c r="C35" s="30">
         <v>1</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="D35" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1760,11 +1829,13 @@
       <c r="C36" s="30">
         <v>1</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D36" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1778,11 +1849,13 @@
       <c r="C37" s="30">
         <v>1</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D37" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1796,11 +1869,13 @@
       <c r="C38" s="30">
         <v>1</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D38" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1814,11 +1889,13 @@
       <c r="C39" s="30">
         <v>1</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1832,11 +1909,13 @@
       <c r="C40" s="30">
         <v>1</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1850,11 +1929,13 @@
       <c r="C41" s="30">
         <v>1</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1868,11 +1949,13 @@
       <c r="C42" s="30">
         <v>1</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1886,11 +1969,13 @@
       <c r="C43" s="30">
         <v>1</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D43" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1904,11 +1989,13 @@
       <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1922,11 +2009,13 @@
       <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D45" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1940,11 +2029,13 @@
       <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1958,11 +2049,13 @@
       <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1976,11 +2069,13 @@
       <c r="C48" s="30">
         <v>1</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1994,11 +2089,13 @@
       <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D49" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2012,11 +2109,13 @@
       <c r="C50" s="30">
         <v>1</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D50" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2030,11 +2129,13 @@
       <c r="C51" s="30">
         <v>1</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2048,11 +2149,13 @@
       <c r="C52" s="30">
         <v>1</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D52" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2066,11 +2169,13 @@
       <c r="C53" s="30">
         <v>1</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D53" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2086,7 +2191,7 @@
   <dimension ref="A1:G358"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3:D465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,9 +2243,7 @@
       <c r="D3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2156,9 +2259,7 @@
       <c r="D4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2174,9 +2275,7 @@
       <c r="D5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2192,9 +2291,7 @@
       <c r="D6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6621,8 +6718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test-data/APPM.xlsx
+++ b/test-data/APPM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFC659-2774-4072-A3A0-F33931B4114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C30A0-824D-425F-91CD-056C12BE146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
     <sheet name="ExecutionFlow" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="APPM_TestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -375,6 +375,9 @@
     <t>login</t>
   </si>
   <si>
+    <t>APPM_TestData</t>
+  </si>
+  <si>
     <t>TC02_Lead Time Analysis_Product Hierarchy_Check if the drop down has Select All Option</t>
   </si>
   <si>
@@ -444,133 +447,127 @@
     <t>DetailedViewColumn_Header</t>
   </si>
   <si>
+    <t>https://app.powerbi.com/groups/59184b32-54d4-4e1b-a73e-aefb692c7c3f/reports/1ba1d6d5-4094-49fa-b606-51e20c414100/ReportSection</t>
+  </si>
+  <si>
+    <t>ganeshb.poojary@jda.com</t>
+  </si>
+  <si>
+    <t>Product Hierarchy</t>
+  </si>
+  <si>
+    <t>Supplier|Destination</t>
+  </si>
+  <si>
+    <t>ModelA</t>
+  </si>
+  <si>
+    <t>Select all</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Count across percentile buckets by supplier &amp; Destination</t>
+  </si>
+  <si>
+    <t>Supplier | Destination</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Transportation Mode</t>
+  </si>
+  <si>
+    <t>Count across percentile buckets by Origin, Destination &amp; Transportation Mode</t>
+  </si>
+  <si>
+    <t>Origin | Destination | Transportation Mode</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Count across percentile buckets by Plant, Routing &amp; Operation</t>
+  </si>
+  <si>
+    <t>Plant | Routing | Operation</t>
+  </si>
+  <si>
+    <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
+  </si>
+  <si>
+    <t>validateDropDownHasData_APPM</t>
+  </si>
+  <si>
+    <t>validateValueInDropDown_APPM</t>
+  </si>
+  <si>
+    <t>validateSummaryChartDeepDiveButtonIsActive_APPM</t>
+  </si>
+  <si>
+    <t>validateSummaryChartName_APPM</t>
+  </si>
+  <si>
+    <t>validateDeepDiveDrillTrough_APPM</t>
+  </si>
+  <si>
+    <t>validateChartColumnHeader_APPM</t>
+  </si>
+  <si>
+    <t>gotoLeadTimeAnalysis_APPM</t>
+  </si>
+  <si>
+    <t>gotoYield_APPM</t>
+  </si>
+  <si>
+    <t>gotoCapacity_APPM</t>
+  </si>
+  <si>
+    <t>gotoSupplierLeadTime_APPM</t>
+  </si>
+  <si>
+    <t>gotoProductionYield_APPM</t>
+  </si>
+  <si>
+    <t>gotoProductionRate_APPM</t>
+  </si>
+  <si>
+    <t>gotoDistributionLeadTime_APPM</t>
+  </si>
+  <si>
+    <t>gotoSummaryChart_APPM</t>
+  </si>
+  <si>
+    <t>gotoDetailedViewChart_APPM</t>
+  </si>
+  <si>
+    <t>validateDataDistributionChart_APPM</t>
+  </si>
+  <si>
     <t>CHROME</t>
   </si>
   <si>
-    <t>https://app.powerbi.com/groups/59184b32-54d4-4e1b-a73e-aefb692c7c3f/reports/1ba1d6d5-4094-49fa-b606-51e20c414100/ReportSection</t>
-  </si>
-  <si>
-    <t>ganeshb.poojary@jda.com</t>
-  </si>
-  <si>
-    <t>Product Hierarchy</t>
-  </si>
-  <si>
-    <t>Supplier|Destination</t>
-  </si>
-  <si>
-    <t>ModelA</t>
-  </si>
-  <si>
-    <t>Select all</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Count across percentile buckets by supplier &amp; Destination</t>
-  </si>
-  <si>
-    <t>Supplier | Destination</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Transportation Mode</t>
-  </si>
-  <si>
-    <t>Count across percentile buckets by Origin, Destination &amp; Transportation Mode</t>
-  </si>
-  <si>
-    <t>Origin | Destination | Transportation Mode</t>
-  </si>
-  <si>
-    <t>Routing</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Count across percentile buckets by Plant, Routing &amp; Operation</t>
-  </si>
-  <si>
-    <t>Plant | Routing | Operation</t>
-  </si>
-  <si>
-    <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
-  </si>
-  <si>
-    <t>validateDropDownHasData_APPM</t>
-  </si>
-  <si>
-    <t>validateValueInDropDown_APPM</t>
-  </si>
-  <si>
-    <t>validateSummaryChartDeepDiveButtonIsActive_APPM</t>
-  </si>
-  <si>
-    <t>validateSummaryChartName_APPM</t>
-  </si>
-  <si>
-    <t>validateDeepDiveDrillTrough_APPM</t>
-  </si>
-  <si>
-    <t>validateChartColumnHeader_APPM</t>
-  </si>
-  <si>
-    <t>gotoLeadTimeAnalysis_APPM</t>
-  </si>
-  <si>
-    <t>gotoYield_APPM</t>
-  </si>
-  <si>
-    <t>gotoCapacity_APPM</t>
-  </si>
-  <si>
-    <t>gotoSupplierLeadTime_APPM</t>
-  </si>
-  <si>
-    <t>gotoProductionYield_APPM</t>
-  </si>
-  <si>
-    <t>gotoProductionRate_APPM</t>
-  </si>
-  <si>
-    <t>gotoDistributionLeadTime_APPM</t>
-  </si>
-  <si>
-    <t>gotoSummaryChart_APPM</t>
-  </si>
-  <si>
-    <t>gotoDetailedViewChart_APPM</t>
-  </si>
-  <si>
-    <t>validateDataDistributionChart_APPM</t>
-  </si>
-  <si>
-    <t>Iteration3</t>
-  </si>
-  <si>
-    <t>TestData</t>
+    <t>Phantoon*1984a</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1100,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D53"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
     <col min="7" max="16384" width="9" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,11 +1135,8 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
@@ -1149,17 +1146,12 @@
       <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
@@ -1169,17 +1161,9 @@
       <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
@@ -1189,17 +1173,11 @@
       <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -1209,17 +1187,9 @@
       <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
@@ -1229,17 +1199,11 @@
       <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
@@ -1249,17 +1213,10 @@
       <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="30"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
@@ -1269,57 +1226,36 @@
       <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="30"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="30">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>24</v>
       </c>
@@ -1329,17 +1265,10 @@
       <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="30"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
@@ -1349,17 +1278,11 @@
       <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>28</v>
       </c>
@@ -1369,17 +1292,11 @@
       <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
@@ -1389,17 +1306,11 @@
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>32</v>
       </c>
@@ -1409,17 +1320,11 @@
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>34</v>
       </c>
@@ -1429,15 +1334,9 @@
       <c r="C16" s="30">
         <v>1</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1449,15 +1348,9 @@
       <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
@@ -1469,15 +1362,9 @@
       <c r="C18" s="30">
         <v>1</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -1489,15 +1376,9 @@
       <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -1509,15 +1390,9 @@
       <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
@@ -1529,15 +1404,8 @@
       <c r="C21" s="30">
         <v>1</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1549,15 +1417,8 @@
       <c r="C22" s="30">
         <v>1</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1569,15 +1430,9 @@
       <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
@@ -1589,15 +1444,8 @@
       <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
@@ -1609,15 +1457,9 @@
       <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
@@ -1629,15 +1471,8 @@
       <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -1649,15 +1484,8 @@
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
@@ -1669,15 +1497,8 @@
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
@@ -1689,15 +1510,8 @@
       <c r="C29" s="30">
         <v>1</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -1709,15 +1523,8 @@
       <c r="C30" s="30">
         <v>1</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
@@ -1729,15 +1536,8 @@
       <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
@@ -1749,15 +1549,8 @@
       <c r="C32" s="30">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -1769,15 +1562,8 @@
       <c r="C33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
@@ -1789,15 +1575,8 @@
       <c r="C34" s="30">
         <v>1</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
@@ -1809,15 +1588,9 @@
       <c r="C35" s="30">
         <v>1</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>175</v>
-      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
@@ -1829,15 +1602,8 @@
       <c r="C36" s="30">
         <v>1</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -1849,15 +1615,8 @@
       <c r="C37" s="30">
         <v>1</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
@@ -1869,15 +1628,8 @@
       <c r="C38" s="30">
         <v>1</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
@@ -1889,15 +1641,8 @@
       <c r="C39" s="30">
         <v>1</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
@@ -1909,15 +1654,8 @@
       <c r="C40" s="30">
         <v>1</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
@@ -1929,15 +1667,8 @@
       <c r="C41" s="30">
         <v>1</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
@@ -1949,15 +1680,8 @@
       <c r="C42" s="30">
         <v>1</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
@@ -1969,15 +1693,8 @@
       <c r="C43" s="30">
         <v>1</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -1989,15 +1706,8 @@
       <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
@@ -2009,15 +1719,8 @@
       <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
@@ -2029,15 +1732,8 @@
       <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
@@ -2049,15 +1745,8 @@
       <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
@@ -2069,17 +1758,10 @@
       <c r="C48" s="30">
         <v>1</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="30"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>98</v>
       </c>
@@ -2089,17 +1771,10 @@
       <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="30"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>100</v>
       </c>
@@ -2109,17 +1784,10 @@
       <c r="C50" s="30">
         <v>1</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="30"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>102</v>
       </c>
@@ -2129,17 +1797,10 @@
       <c r="C51" s="30">
         <v>1</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="30"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>104</v>
       </c>
@@ -2149,17 +1810,10 @@
       <c r="C52" s="30">
         <v>1</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="30"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>106</v>
       </c>
@@ -2169,15 +1823,8 @@
       <c r="C53" s="30">
         <v>1</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2190,17 +1837,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D465"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2220,9 +1867,7 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2238,13 +1883,12 @@
         <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2254,13 +1898,10 @@
         <v>163</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2270,13 +1911,10 @@
         <v>166</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2286,17 +1924,14 @@
         <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2307,14 +1942,10 @@
         <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2324,14 +1955,10 @@
         <v>163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2341,14 +1968,10 @@
         <v>166</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2358,18 +1981,14 @@
         <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,14 +1999,10 @@
         <v>111</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2397,14 +2012,10 @@
         <v>163</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2414,14 +2025,10 @@
         <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2431,18 +2038,14 @@
         <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,14 +2056,10 @@
         <v>111</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2470,14 +2069,10 @@
         <v>163</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2487,14 +2082,10 @@
         <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2504,18 +2095,14 @@
         <v>158</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2526,14 +2113,10 @@
         <v>111</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -2543,14 +2126,10 @@
         <v>163</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2560,14 +2139,10 @@
         <v>166</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2577,18 +2152,14 @@
         <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2599,14 +2170,10 @@
         <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2616,14 +2183,10 @@
         <v>163</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2633,14 +2196,10 @@
         <v>166</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2650,14 +2209,10 @@
         <v>158</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -2672,14 +2227,10 @@
         <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2689,14 +2240,10 @@
         <v>163</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2706,14 +2253,10 @@
         <v>166</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2723,14 +2266,10 @@
         <v>170</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2740,14 +2279,10 @@
         <v>160</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2757,14 +2292,10 @@
         <v>162</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -2779,14 +2310,10 @@
         <v>111</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -2796,14 +2323,10 @@
         <v>163</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -2813,14 +2336,10 @@
         <v>166</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -2830,14 +2349,10 @@
         <v>170</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2847,14 +2362,10 @@
         <v>159</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -2869,14 +2380,10 @@
         <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -2886,14 +2393,10 @@
         <v>163</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -2903,14 +2406,10 @@
         <v>166</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -2920,14 +2419,10 @@
         <v>170</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2937,14 +2432,10 @@
         <v>161</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -2959,14 +2450,10 @@
         <v>111</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -2976,14 +2463,10 @@
         <v>163</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2993,14 +2476,10 @@
         <v>166</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -3010,14 +2489,10 @@
         <v>171</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3027,14 +2502,10 @@
         <v>162</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -3049,14 +2520,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3066,14 +2533,10 @@
         <v>163</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -3083,14 +2546,10 @@
         <v>166</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -3100,14 +2559,10 @@
         <v>171</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -3117,14 +2572,10 @@
         <v>172</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -3139,14 +2590,10 @@
         <v>111</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -3156,14 +2603,10 @@
         <v>163</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -3173,14 +2616,10 @@
         <v>169</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -3190,18 +2629,14 @@
         <v>157</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3212,14 +2647,10 @@
         <v>111</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -3229,14 +2660,10 @@
         <v>163</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -3246,14 +2673,10 @@
         <v>169</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -3263,14 +2686,10 @@
         <v>158</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -3285,14 +2704,10 @@
         <v>111</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3302,14 +2717,10 @@
         <v>163</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -3319,14 +2730,10 @@
         <v>169</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -3336,18 +2743,14 @@
         <v>157</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,14 +2761,10 @@
         <v>111</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
@@ -3375,14 +2774,10 @@
         <v>163</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3392,14 +2787,10 @@
         <v>169</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -3409,14 +2800,10 @@
         <v>158</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
@@ -3431,14 +2818,10 @@
         <v>111</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -3448,14 +2831,10 @@
         <v>163</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
@@ -3465,14 +2844,10 @@
         <v>169</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -3482,18 +2857,14 @@
         <v>157</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3504,14 +2875,10 @@
         <v>111</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3521,14 +2888,10 @@
         <v>163</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3538,14 +2901,10 @@
         <v>169</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -3555,18 +2914,14 @@
         <v>158</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3577,14 +2932,10 @@
         <v>111</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
@@ -3594,14 +2945,10 @@
         <v>163</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
@@ -3611,14 +2958,10 @@
         <v>169</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -3628,18 +2971,14 @@
         <v>157</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3650,14 +2989,10 @@
         <v>111</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -3667,14 +3002,10 @@
         <v>163</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -3684,14 +3015,10 @@
         <v>169</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -3701,18 +3028,14 @@
         <v>158</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3723,14 +3046,10 @@
         <v>111</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -3740,14 +3059,10 @@
         <v>163</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
@@ -3757,14 +3072,10 @@
         <v>169</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
@@ -3774,14 +3085,10 @@
         <v>170</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -3791,14 +3098,10 @@
         <v>160</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3808,14 +3111,10 @@
         <v>162</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
@@ -3830,14 +3129,10 @@
         <v>111</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -3847,14 +3142,10 @@
         <v>163</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
@@ -3864,14 +3155,10 @@
         <v>169</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
@@ -3881,14 +3168,10 @@
         <v>170</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3898,14 +3181,10 @@
         <v>159</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
@@ -3920,14 +3199,10 @@
         <v>111</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -3937,14 +3212,10 @@
         <v>163</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -3954,14 +3225,10 @@
         <v>169</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -3971,14 +3238,10 @@
         <v>170</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -3988,18 +3251,14 @@
         <v>161</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4010,14 +3269,10 @@
         <v>111</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -4027,14 +3282,10 @@
         <v>163</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4044,14 +3295,10 @@
         <v>169</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
@@ -4061,14 +3308,10 @@
         <v>171</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -4078,14 +3321,10 @@
         <v>162</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -4100,14 +3339,10 @@
         <v>111</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
@@ -4117,14 +3352,10 @@
         <v>163</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4134,14 +3365,10 @@
         <v>169</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
@@ -4151,14 +3378,10 @@
         <v>171</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4168,14 +3391,10 @@
         <v>172</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>176</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
@@ -4190,14 +3409,10 @@
         <v>111</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -4207,14 +3422,10 @@
         <v>164</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -4224,14 +3435,10 @@
         <v>167</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -4241,14 +3448,10 @@
         <v>157</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
@@ -4263,14 +3466,10 @@
         <v>111</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -4280,14 +3479,10 @@
         <v>164</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
@@ -4297,14 +3492,10 @@
         <v>167</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -4314,14 +3505,10 @@
         <v>158</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
@@ -4336,14 +3523,10 @@
         <v>111</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
@@ -4353,14 +3536,10 @@
         <v>164</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -4370,14 +3549,10 @@
         <v>167</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -4387,14 +3562,10 @@
         <v>157</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
@@ -4409,14 +3580,10 @@
         <v>111</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -4426,14 +3593,10 @@
         <v>164</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
@@ -4443,14 +3606,10 @@
         <v>167</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
@@ -4460,14 +3619,10 @@
         <v>158</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
@@ -4482,14 +3637,10 @@
         <v>111</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -4499,14 +3650,10 @@
         <v>164</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
@@ -4516,14 +3663,10 @@
         <v>167</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
@@ -4533,14 +3676,10 @@
         <v>157</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E158" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
@@ -4555,14 +3694,10 @@
         <v>111</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
@@ -4572,14 +3707,10 @@
         <v>164</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
@@ -4589,14 +3720,10 @@
         <v>167</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
@@ -4606,14 +3733,10 @@
         <v>158</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E163" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
@@ -4628,14 +3751,10 @@
         <v>111</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -4645,14 +3764,10 @@
         <v>164</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
@@ -4662,14 +3777,10 @@
         <v>167</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
@@ -4679,14 +3790,10 @@
         <v>157</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
@@ -4701,14 +3808,10 @@
         <v>111</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
@@ -4718,14 +3821,10 @@
         <v>164</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
@@ -4735,14 +3834,10 @@
         <v>167</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="13"/>
     </row>
     <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
@@ -4752,14 +3847,10 @@
         <v>158</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
@@ -4774,14 +3865,10 @@
         <v>111</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
@@ -4791,14 +3878,10 @@
         <v>164</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -4808,14 +3891,10 @@
         <v>167</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -4825,14 +3904,10 @@
         <v>170</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
@@ -4842,14 +3917,10 @@
         <v>160</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
@@ -4859,14 +3930,10 @@
         <v>162</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -4881,14 +3948,10 @@
         <v>111</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
@@ -4898,14 +3961,10 @@
         <v>164</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
@@ -4915,14 +3974,10 @@
         <v>167</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
@@ -4932,14 +3987,10 @@
         <v>170</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
@@ -4949,14 +4000,10 @@
         <v>159</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
@@ -4971,14 +4018,10 @@
         <v>111</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -4988,14 +4031,10 @@
         <v>164</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
@@ -5005,14 +4044,10 @@
         <v>167</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
@@ -5022,14 +4057,10 @@
         <v>170</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E191" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
@@ -5039,14 +4070,10 @@
         <v>161</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E192" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -5061,14 +4088,10 @@
         <v>111</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -5078,14 +4101,10 @@
         <v>164</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
@@ -5095,14 +4114,10 @@
         <v>167</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
@@ -5112,14 +4127,10 @@
         <v>171</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
@@ -5129,14 +4140,10 @@
         <v>162</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
@@ -5151,14 +4158,10 @@
         <v>111</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
@@ -5168,14 +4171,10 @@
         <v>164</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E201" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
@@ -5185,14 +4184,10 @@
         <v>167</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
@@ -5202,14 +4197,10 @@
         <v>171</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="13"/>
     </row>
     <row r="204" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -5219,14 +4210,10 @@
         <v>172</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
@@ -5241,14 +4228,10 @@
         <v>111</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="13"/>
     </row>
     <row r="207" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
@@ -5258,14 +4241,10 @@
         <v>165</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="13"/>
     </row>
     <row r="208" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -5275,14 +4254,10 @@
         <v>168</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="13"/>
     </row>
     <row r="209" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
@@ -5292,14 +4267,10 @@
         <v>157</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
@@ -5314,14 +4285,10 @@
         <v>111</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E211" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="13"/>
     </row>
     <row r="212" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5331,14 +4298,10 @@
         <v>165</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E212" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="13"/>
     </row>
     <row r="213" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
@@ -5348,14 +4311,10 @@
         <v>168</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
@@ -5365,14 +4324,10 @@
         <v>158</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
@@ -5387,14 +4342,10 @@
         <v>111</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="13"/>
     </row>
     <row r="217" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -5404,14 +4355,10 @@
         <v>165</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E217" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="218" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
@@ -5421,14 +4368,10 @@
         <v>168</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E218" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D218" s="5"/>
+      <c r="E218" s="13"/>
     </row>
     <row r="219" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
@@ -5438,14 +4381,10 @@
         <v>157</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D219" s="5"/>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
@@ -5460,14 +4399,10 @@
         <v>111</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E221" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="13"/>
     </row>
     <row r="222" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
@@ -5477,14 +4412,10 @@
         <v>164</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="13"/>
     </row>
     <row r="223" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5494,14 +4425,10 @@
         <v>167</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="13"/>
     </row>
     <row r="224" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -5511,14 +4438,10 @@
         <v>158</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="13"/>
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
@@ -5533,14 +4456,10 @@
         <v>111</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="13"/>
     </row>
     <row r="227" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
@@ -5550,14 +4469,10 @@
         <v>165</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E227" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D227" s="5"/>
+      <c r="E227" s="13"/>
     </row>
     <row r="228" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
@@ -5567,14 +4482,10 @@
         <v>168</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D228" s="5"/>
+      <c r="E228" s="13"/>
     </row>
     <row r="229" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
@@ -5584,14 +4495,10 @@
         <v>157</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D229" s="5"/>
+      <c r="E229" s="13"/>
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
@@ -5606,14 +4513,10 @@
         <v>111</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E231" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="13"/>
     </row>
     <row r="232" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
@@ -5623,14 +4526,10 @@
         <v>165</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E232" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="233" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -5640,14 +4539,10 @@
         <v>168</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E233" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5657,14 +4552,10 @@
         <v>158</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E234" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
@@ -5679,14 +4570,10 @@
         <v>111</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E236" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
@@ -5696,14 +4583,10 @@
         <v>165</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E237" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
@@ -5713,14 +4596,10 @@
         <v>168</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -5730,14 +4609,10 @@
         <v>157</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E239" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
@@ -5752,14 +4627,10 @@
         <v>111</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E241" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="242" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
@@ -5769,14 +4640,10 @@
         <v>164</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E242" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="13"/>
     </row>
     <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
@@ -5786,14 +4653,10 @@
         <v>167</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E243" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D243" s="5"/>
+      <c r="E243" s="13"/>
     </row>
     <row r="244" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
@@ -5803,14 +4666,10 @@
         <v>158</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E244" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="13"/>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
@@ -5825,14 +4684,10 @@
         <v>111</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E246" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="13"/>
     </row>
     <row r="247" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
@@ -5842,14 +4697,10 @@
         <v>165</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="13"/>
     </row>
     <row r="248" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
@@ -5859,14 +4710,10 @@
         <v>168</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="13"/>
     </row>
     <row r="249" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
@@ -5876,14 +4723,10 @@
         <v>157</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E249" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="13"/>
     </row>
     <row r="250" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
@@ -5898,14 +4741,10 @@
         <v>111</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="13"/>
     </row>
     <row r="252" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
@@ -5915,14 +4754,10 @@
         <v>165</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="13"/>
     </row>
     <row r="253" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
@@ -5932,14 +4767,10 @@
         <v>168</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E253" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="13"/>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
@@ -5949,14 +4780,10 @@
         <v>158</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E254" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D254" s="5"/>
+      <c r="E254" s="13"/>
     </row>
     <row r="255" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
@@ -5971,14 +4798,10 @@
         <v>111</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E256" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="13"/>
     </row>
     <row r="257" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
@@ -5988,14 +4811,10 @@
         <v>165</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E257" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="258" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
@@ -6005,14 +4824,10 @@
         <v>168</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E258" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="13"/>
     </row>
     <row r="259" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
@@ -6022,14 +4837,10 @@
         <v>170</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E259" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="13"/>
     </row>
     <row r="260" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
@@ -6039,14 +4850,10 @@
         <v>160</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E260" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="13"/>
     </row>
     <row r="261" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
@@ -6056,14 +4863,10 @@
         <v>162</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="13"/>
     </row>
     <row r="262" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
@@ -6078,14 +4881,10 @@
         <v>111</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E263" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="13"/>
     </row>
     <row r="264" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
@@ -6095,14 +4894,10 @@
         <v>165</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="13"/>
     </row>
     <row r="265" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
@@ -6112,14 +4907,10 @@
         <v>168</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E265" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="13"/>
     </row>
     <row r="266" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
@@ -6129,14 +4920,10 @@
         <v>170</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E266" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="13"/>
     </row>
     <row r="267" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
@@ -6146,14 +4933,10 @@
         <v>159</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E267" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="13"/>
     </row>
     <row r="268" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
@@ -6168,14 +4951,10 @@
         <v>111</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
@@ -6185,14 +4964,10 @@
         <v>165</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E270" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="13"/>
     </row>
     <row r="271" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
@@ -6202,14 +4977,10 @@
         <v>168</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="13"/>
     </row>
     <row r="272" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
@@ -6219,14 +4990,10 @@
         <v>170</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E272" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="13"/>
     </row>
     <row r="273" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
@@ -6236,14 +5003,10 @@
         <v>161</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E273" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="13"/>
     </row>
     <row r="274" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
@@ -6258,14 +5021,10 @@
         <v>111</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E275" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="13"/>
     </row>
     <row r="276" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
@@ -6275,14 +5034,10 @@
         <v>165</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E276" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="13"/>
     </row>
     <row r="277" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
@@ -6292,14 +5047,10 @@
         <v>168</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E277" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
@@ -6309,14 +5060,10 @@
         <v>171</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E278" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -6326,14 +5073,10 @@
         <v>162</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E279" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="13"/>
     </row>
     <row r="280" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
@@ -6348,14 +5091,10 @@
         <v>111</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E281" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="13"/>
     </row>
     <row r="282" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
@@ -6365,14 +5104,10 @@
         <v>165</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E282" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="13"/>
     </row>
     <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
@@ -6382,14 +5117,10 @@
         <v>168</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E283" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
@@ -6399,14 +5130,10 @@
         <v>171</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D284" s="5"/>
+      <c r="E284" s="13"/>
     </row>
     <row r="285" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
@@ -6416,14 +5143,10 @@
         <v>172</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E285" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="13"/>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
@@ -6718,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F67"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6744,37 +5467,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6785,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>136</v>
@@ -6793,7 +5516,9 @@
       <c r="E2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="G2" s="25" t="s">
         <v>138</v>
       </c>
@@ -6813,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>136</v>
@@ -6843,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>136</v>
@@ -6869,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>136</v>
@@ -6896,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>136</v>
@@ -6920,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>136</v>
@@ -6947,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>136</v>
@@ -6976,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>136</v>
@@ -7002,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>136</v>
@@ -7031,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>136</v>
@@ -7057,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>136</v>
@@ -7080,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>136</v>
@@ -7108,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>136</v>
@@ -7138,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>136</v>
@@ -7166,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>136</v>
@@ -7196,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>136</v>
@@ -7224,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>136</v>
@@ -7254,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>136</v>
@@ -7282,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>136</v>
@@ -7312,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>136</v>
@@ -7341,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>136</v>
@@ -7367,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>136</v>
@@ -7396,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>136</v>
@@ -7425,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>136</v>
@@ -7448,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>136</v>
@@ -7476,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>136</v>
@@ -7506,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>136</v>
@@ -7534,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>136</v>
@@ -7564,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>136</v>
@@ -7592,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>136</v>
@@ -7622,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>136</v>
@@ -7650,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>136</v>
@@ -7680,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>136</v>
@@ -7709,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>136</v>
@@ -7735,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>136</v>
@@ -7764,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>136</v>
@@ -7793,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>136</v>
@@ -7816,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>136</v>
@@ -7844,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>136</v>
@@ -7874,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>136</v>
@@ -7902,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>136</v>
@@ -7932,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>136</v>
@@ -7960,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>136</v>
@@ -7990,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>136</v>
@@ -8018,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>136</v>
@@ -8048,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>136</v>
@@ -8076,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>136</v>
@@ -8106,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>136</v>
@@ -8135,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>136</v>
@@ -8161,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>136</v>
@@ -8190,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>136</v>
@@ -8219,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>136</v>
